--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,36 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\Deer_GameFramework_HuaTuo\LubanTools\DesignerConfigs\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA1CB37-75FA-4D6E-A5A9-6EEFB8BD1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21525" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -122,47 +106,98 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
+    <t>Deer.TbUIForm_Config</t>
+  </si>
+  <si>
+    <t>UIForm_Config</t>
+  </si>
+  <si>
     <t>J_界面相关/UIForm_Config.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deer.TbSounds_Config</t>
+  </si>
+  <si>
+    <t>Sounds_Config</t>
   </si>
   <si>
     <t>S_声音相关/Sounds_Config.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deer.TbLanguage_Config</t>
+  </si>
+  <si>
+    <t>Language_Config</t>
   </si>
   <si>
     <t>W_文字相关/Language_Config.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sounds_Config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language_Config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deer.TbUIForm_Config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deer.TbSounds_Config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deer.TbLanguage_Config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIForm_Config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deer.TbUIData_GameMode</t>
+  </si>
+  <si>
+    <t>UIData_GameMode</t>
+  </si>
+  <si>
+    <t>T_业务逻辑/UIData_GameMode.xlsx</t>
+  </si>
+  <si>
+    <t>Deer.TbUIData_Race</t>
+  </si>
+  <si>
+    <t>UIData_Race</t>
+  </si>
+  <si>
+    <t>T_业务逻辑/UIData_Race.xlsx</t>
+  </si>
+  <si>
+    <t>Deer.TbUIData_Character</t>
+  </si>
+  <si>
+    <t>UIData_Character</t>
+  </si>
+  <si>
+    <t>T_业务逻辑/UIData_Character.xlsx</t>
+  </si>
+  <si>
+    <t>Deer.TbPlayerData_Character</t>
+  </si>
+  <si>
+    <t>PlayerData_Character</t>
+  </si>
+  <si>
+    <t>T_业务逻辑/PlayerData_Character.xlsx</t>
+  </si>
+  <si>
+    <t>Deer.TbEntityData</t>
+  </si>
+  <si>
+    <t>EntityData</t>
+  </si>
+  <si>
+    <t>T_业务逻辑/EntityData.xlsx</t>
+  </si>
+  <si>
+    <t>Deer.TbLevelData</t>
+  </si>
+  <si>
+    <t>LevelData</t>
+  </si>
+  <si>
+    <t>T_业务逻辑/LevelData_0.xlsx,T_业务逻辑/LevelData_1.xlsx,T_业务逻辑/LevelData_2.xlsx,T_业务逻辑/LevelData_3.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +209,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -188,12 +216,141 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +363,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,12 +552,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -228,25 +804,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,34 +1123,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
-    <col min="6" max="6" width="69.33203125" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="97.25" customWidth="1"/>
+    <col min="6" max="6" width="69.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="32.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="61" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.8833333333333" customWidth="1"/>
+    <col min="12" max="12" width="35.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +1188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -604,7 +1223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="17" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -630,57 +1249,139 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="2:7">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
+    <row r="8" customFormat="1" spans="2:7">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\Owner\Deer_GameFramework_Wolong\LubanTools\DesignerConfigs\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896A066-7788-452E-9F9A-AAB2A21D3121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5556" yWindow="1824" windowWidth="23040" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -112,15 +106,6 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Deer.TbUIForm_Config</t>
-  </si>
-  <si>
-    <t>UIForm_Config</t>
-  </si>
-  <si>
-    <t>J_界面相关/UIForm_Config.xlsx</t>
-  </si>
-  <si>
     <t>Deer.TbSounds_Config</t>
   </si>
   <si>
@@ -145,65 +130,65 @@
     <t>UIData_GameMode</t>
   </si>
   <si>
+    <t>T_例子业务逻辑/UIData_GameMode.xlsx</t>
+  </si>
+  <si>
     <t>Deer.TbUIData_Race</t>
   </si>
   <si>
     <t>UIData_Race</t>
   </si>
   <si>
+    <t>T_例子业务逻辑/UIData_Race.xlsx</t>
+  </si>
+  <si>
     <t>Deer.TbUIData_Character</t>
   </si>
   <si>
     <t>UIData_Character</t>
   </si>
   <si>
+    <t>T_例子业务逻辑/UIData_Character.xlsx</t>
+  </si>
+  <si>
     <t>Deer.TbPlayerData_Character</t>
   </si>
   <si>
     <t>PlayerData_Character</t>
   </si>
   <si>
+    <t>T_例子业务逻辑/PlayerData_Character.xlsx</t>
+  </si>
+  <si>
     <t>Deer.TbEntityData</t>
   </si>
   <si>
     <t>EntityData</t>
   </si>
   <si>
+    <t>T_例子业务逻辑/EntityData.xlsx</t>
+  </si>
+  <si>
     <t>Deer.TbLevelData</t>
   </si>
   <si>
     <t>LevelData</t>
   </si>
   <si>
-    <t>T_例子业务逻辑/UIData_GameMode.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_Race.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_Character.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/PlayerData_Character.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/EntityData.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T_例子业务逻辑/LevelData_0.xlsx,T_例子业务逻辑/LevelData_1.xlsx,T_例子业务逻辑/LevelData_2.xlsx,T_例子业务逻辑/LevelData_3.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,9 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -229,12 +214,141 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +361,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,12 +550,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -269,28 +802,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -548,34 +1124,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="120.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.33203125" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="120.666666666667" customWidth="1"/>
+    <col min="6" max="6" width="69.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="32.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="61" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="35.109375" customWidth="1"/>
+    <col min="10" max="10" width="35.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="12.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="35.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +1189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -648,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="16.95" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -674,7 +1250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
@@ -688,7 +1264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
@@ -702,7 +1278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -712,11 +1288,13 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
@@ -727,86 +1305,70 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>43</v>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>